--- a/corpusanalyse uitdatabank/land_discipline_frequentie.xlsx
+++ b/corpusanalyse uitdatabank/land_discipline_frequentie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>landsvermelding</t>
   </si>
@@ -25,430 +25,460 @@
     <t>frequentie</t>
   </si>
   <si>
+    <t>Syrië</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>podium</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Zwitserland</t>
+  </si>
+  <si>
+    <t>Verenigd Koninkrijk</t>
+  </si>
+  <si>
+    <t>Israël</t>
+  </si>
+  <si>
+    <t>Griekenland</t>
+  </si>
+  <si>
+    <t>Seychellen</t>
+  </si>
+  <si>
     <t>Jordanië</t>
   </si>
   <si>
-    <t>podium</t>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Mongolië</t>
+  </si>
+  <si>
+    <t>Hongarije</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Tsjechië</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Tentoonstelling</t>
+  </si>
+  <si>
+    <t>Zweden</t>
+  </si>
+  <si>
+    <t>Zuid-Soedan</t>
+  </si>
+  <si>
+    <t>Bahama's</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albanië</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Jemen</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Indonesië</t>
+  </si>
+  <si>
+    <t>Australië</t>
+  </si>
+  <si>
+    <t>Litouwen</t>
+  </si>
+  <si>
+    <t>Italië</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Bosnië en Herzegovina</t>
+  </si>
+  <si>
+    <t>Vlaanderen</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Georgië</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Slovenië</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Trinidad en Tobago</t>
+  </si>
+  <si>
+    <t>Dominicaanse Republiek</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Polen</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Ivoorkust</t>
+  </si>
+  <si>
+    <t>Servië</t>
+  </si>
+  <si>
+    <t>Benin</t>
   </si>
   <si>
     <t>Kroatië</t>
   </si>
   <si>
-    <t>Concert</t>
+    <t>Tunesië</t>
+  </si>
+  <si>
+    <t>Oeganda</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Somalië</t>
+  </si>
+  <si>
+    <t>Libië</t>
+  </si>
+  <si>
+    <t>Noorwegen</t>
+  </si>
+  <si>
+    <t>Mauritanië</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Oostenrijk</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Ethiopië</t>
+  </si>
+  <si>
+    <t>Macedonië</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Cambodja</t>
+  </si>
+  <si>
+    <t>Turkije</t>
+  </si>
+  <si>
+    <t>Wallonië</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>IJsland</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Madagaskar</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Slowakije</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Nieuw-Zeeland</t>
+  </si>
+  <si>
+    <t>Estland</t>
+  </si>
+  <si>
+    <t>Zuid-Afrika</t>
+  </si>
+  <si>
+    <t>Verenigde Staten</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Algerije</t>
+  </si>
+  <si>
+    <t>Argentinië</t>
+  </si>
+  <si>
+    <t>Bulgarije</t>
+  </si>
+  <si>
+    <t>Kazachstan</t>
   </si>
   <si>
     <t>Denemarken</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Polen</t>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Marokko</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Roemenië</t>
+  </si>
+  <si>
+    <t>Oekraïne</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Ierland</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Letland</t>
+  </si>
+  <si>
+    <t>Duitsland</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Armenië</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Rusland</t>
+  </si>
+  <si>
+    <t>Egypte</t>
+  </si>
+  <si>
+    <t>Maleisië</t>
+  </si>
+  <si>
+    <t>Zuid-Korea</t>
+  </si>
+  <si>
+    <t>Guinee</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Congo-Kinshasa</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Verenigde Arabische Emiraten</t>
+  </si>
+  <si>
+    <t>Soedan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Spanje</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Brazilië</t>
+  </si>
+  <si>
+    <t>België</t>
+  </si>
+  <si>
+    <t>Filipijnen</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Bahrein</t>
   </si>
   <si>
     <t>Libanon</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Oostenrijk</t>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Frankrijk</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Papoea-Nieuw-Guinea</t>
+  </si>
+  <si>
+    <t>Comoren</t>
+  </si>
+  <si>
+    <t>Congo-Brazzaville</t>
+  </si>
+  <si>
+    <t>Saoedi-Arabië</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Kaapverdië</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Vaticaanstad</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Duitsland</t>
-  </si>
-  <si>
-    <t>Brazilië</t>
-  </si>
-  <si>
-    <t>Verenigde Staten</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>Hongarije</t>
-  </si>
-  <si>
-    <t>Soedan</t>
-  </si>
-  <si>
-    <t>Tentoonstelling</t>
-  </si>
-  <si>
-    <t>Turkije</t>
-  </si>
-  <si>
-    <t>Madagaskar</t>
-  </si>
-  <si>
-    <t>Letland</t>
-  </si>
-  <si>
-    <t>Syrië</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Australië</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Luxemburg</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Bosnië en Herzegovina</t>
-  </si>
-  <si>
-    <t>Filipijnen</t>
-  </si>
-  <si>
-    <t>Spanje</t>
-  </si>
-  <si>
-    <t>Griekenland</t>
-  </si>
-  <si>
-    <t>Nieuw-Zeeland</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Ethiopië</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Seychellen</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Oekraïne</t>
-  </si>
-  <si>
-    <t>Tsjechië</t>
-  </si>
-  <si>
-    <t>Guinee</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Verenigd Koninkrijk</t>
-  </si>
-  <si>
-    <t>Mauritanië</t>
-  </si>
-  <si>
-    <t>Rusland</t>
-  </si>
-  <si>
-    <t>België</t>
-  </si>
-  <si>
-    <t>Zuid-Afrika</t>
-  </si>
-  <si>
-    <t>Zweden</t>
-  </si>
-  <si>
-    <t>Italië</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Kaapverdië</t>
-  </si>
-  <si>
-    <t>Egypte</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Argentinië</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Bahrein</t>
-  </si>
-  <si>
-    <t>Chili</t>
-  </si>
-  <si>
-    <t>Zwitserland</t>
-  </si>
-  <si>
-    <t>Indonesië</t>
-  </si>
-  <si>
-    <t>Frankrijk</t>
-  </si>
-  <si>
-    <t>Cambodja</t>
-  </si>
-  <si>
-    <t>Libië</t>
-  </si>
-  <si>
-    <t>Congo-Kinshasa</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Bulgarije</t>
-  </si>
-  <si>
-    <t>Wallonië</t>
-  </si>
-  <si>
-    <t>Algerije</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Dominicaanse Republiek</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>Slowakije</t>
-  </si>
-  <si>
-    <t>Macedonië</t>
-  </si>
-  <si>
-    <t>Marokko</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Congo-Brazzaville</t>
-  </si>
-  <si>
-    <t>Zuid-Korea</t>
-  </si>
-  <si>
-    <t>Slovenië</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Estland</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Ierland</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Oeganda</t>
-  </si>
-  <si>
-    <t>Ivoorkust</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Albanië</t>
-  </si>
-  <si>
-    <t>IJsland</t>
-  </si>
-  <si>
-    <t>Israël</t>
-  </si>
-  <si>
-    <t>Tunesië</t>
-  </si>
-  <si>
-    <t>Vlaanderen</t>
-  </si>
-  <si>
-    <t>Servië</t>
-  </si>
-  <si>
     <t>Moldavië</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Kazachstan</t>
-  </si>
-  <si>
-    <t>Mongolië</t>
-  </si>
-  <si>
-    <t>Georgië</t>
-  </si>
-  <si>
-    <t>Verenigde Arabische Emiraten</t>
-  </si>
-  <si>
-    <t>Maleisië</t>
-  </si>
-  <si>
-    <t>Somalië</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Roemenië</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Noorwegen</t>
-  </si>
-  <si>
-    <t>Koeweit</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Armenië</t>
-  </si>
-  <si>
-    <t>Litouwen</t>
-  </si>
-  <si>
-    <t>Bahama's</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Kirgizië</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Saoedi-Arabië</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Comoren</t>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Wit-Rusland</t>
   </si>
 </sst>
 </file>
@@ -797,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -852,10 +882,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -866,10 +896,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -880,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -897,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -911,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -922,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -936,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -964,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>154</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -981,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -992,10 +1022,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>460</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1006,10 +1036,10 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1020,10 +1050,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1031,13 +1061,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1048,10 +1078,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1062,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1079,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1090,10 +1120,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1101,13 +1131,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1115,13 +1145,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1129,13 +1159,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1143,13 +1173,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1157,13 +1187,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1171,13 +1201,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1185,13 +1215,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1199,13 +1229,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1213,13 +1243,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1227,13 +1257,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1241,13 +1271,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1255,13 +1285,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1269,13 +1299,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1283,13 +1313,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1297,13 +1327,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1311,13 +1341,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1325,13 +1355,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1339,13 +1369,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1353,13 +1383,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1367,13 +1397,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1381,13 +1411,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>865</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1395,13 +1425,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1409,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1423,13 +1453,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1437,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1451,13 +1481,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1465,13 +1495,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1479,13 +1509,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1493,13 +1523,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1507,13 +1537,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>790</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1521,13 +1551,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1535,13 +1565,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1549,13 +1579,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1563,13 +1593,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1577,13 +1607,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1591,13 +1621,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1605,13 +1635,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1619,13 +1649,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1633,13 +1663,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1647,10 +1677,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1661,13 +1691,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1675,13 +1705,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1689,13 +1719,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1703,13 +1733,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1717,13 +1747,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1731,13 +1761,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1745,10 +1775,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1759,13 +1789,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1773,13 +1803,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1787,7 +1817,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1801,13 +1831,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1815,13 +1845,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1829,10 +1859,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
@@ -1843,13 +1873,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1857,13 +1887,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1871,13 +1901,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1885,13 +1915,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1899,13 +1929,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1913,13 +1943,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1927,13 +1957,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1941,13 +1971,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1955,13 +1985,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1969,13 +1999,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1983,13 +2013,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1997,13 +2027,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>37</v>
+        <v>678</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2011,13 +2041,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2025,13 +2055,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2039,13 +2069,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2053,13 +2083,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2067,10 +2097,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
@@ -2081,13 +2111,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2095,13 +2125,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2109,10 +2139,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
         <v>8</v>
@@ -2123,10 +2153,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
@@ -2137,13 +2167,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2151,13 +2181,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2165,13 +2195,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2179,13 +2209,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2196,10 +2226,10 @@
         <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2207,13 +2237,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2221,10 +2251,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>4</v>
@@ -2235,13 +2265,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2249,13 +2279,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2263,13 +2293,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2277,13 +2307,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2291,13 +2321,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2305,13 +2335,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2319,13 +2349,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2333,10 +2363,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
         <v>4</v>
@@ -2347,13 +2377,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2361,13 +2391,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>873</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2375,13 +2405,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2389,13 +2419,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2403,13 +2433,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2417,13 +2447,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2431,13 +2461,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2445,13 +2475,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2459,13 +2489,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2473,13 +2503,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2487,10 +2517,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
         <v>3</v>
@@ -2501,13 +2531,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D122" t="n">
-        <v>161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2515,13 +2545,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2529,13 +2559,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2543,13 +2573,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2557,13 +2587,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2571,13 +2601,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2585,13 +2615,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="n">
         <v>60</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2599,10 +2629,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
         <v>6</v>
@@ -2613,13 +2643,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2627,13 +2657,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2641,13 +2671,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2655,13 +2685,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2669,13 +2699,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2683,13 +2713,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D135" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2697,13 +2727,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2711,13 +2741,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2725,10 +2755,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2739,13 +2769,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
       </c>
       <c r="D139" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2753,13 +2783,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2767,13 +2797,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2781,13 +2811,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2795,13 +2825,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2809,13 +2839,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2823,13 +2853,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2837,13 +2867,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2851,7 +2881,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -2865,13 +2895,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2879,13 +2909,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2893,10 +2923,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C150" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
         <v>4</v>
@@ -2907,13 +2937,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2921,10 +2951,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152" t="n">
         <v>2</v>
@@ -2935,13 +2965,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2949,10 +2979,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
         <v>2</v>
@@ -2963,13 +2993,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2977,13 +3007,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2991,13 +3021,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3005,13 +3035,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3019,13 +3049,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3033,13 +3063,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3047,13 +3077,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3061,13 +3091,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3075,13 +3105,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3089,13 +3119,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3103,13 +3133,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3117,13 +3147,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3131,13 +3161,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3145,13 +3175,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3159,13 +3189,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>306</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3173,13 +3203,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3187,13 +3217,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3201,13 +3231,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3215,13 +3245,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3229,13 +3259,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3243,13 +3273,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3257,13 +3287,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D176" t="n">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3271,13 +3301,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="C177" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3285,13 +3315,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
-        <v>672</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3299,13 +3329,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>554</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3313,13 +3343,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3327,13 +3357,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3341,13 +3371,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3355,13 +3385,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3369,13 +3399,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
       </c>
       <c r="D184" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3383,13 +3413,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3397,13 +3427,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3411,13 +3441,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3425,13 +3455,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3439,13 +3469,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3453,13 +3483,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3467,13 +3497,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3481,7 +3511,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3495,13 +3525,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3509,13 +3539,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3523,13 +3553,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3537,13 +3567,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3551,13 +3581,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>141</v>
+        <v>686</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3565,13 +3595,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D198" t="n">
-        <v>1271</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3579,13 +3609,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
       </c>
       <c r="D199" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3593,13 +3623,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3607,13 +3637,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3621,13 +3651,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="n">
         <v>15</v>
-      </c>
-      <c r="C202" t="s">
-        <v>21</v>
-      </c>
-      <c r="D202" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3635,13 +3665,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3649,13 +3679,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
-        <v>935</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3663,10 +3693,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -3677,13 +3707,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3691,13 +3721,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3705,13 +3735,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3719,13 +3749,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D209" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3733,13 +3763,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3747,13 +3777,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3761,13 +3791,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3775,13 +3805,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3789,13 +3819,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3803,13 +3833,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3817,13 +3847,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D216" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3831,13 +3861,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3845,13 +3875,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3859,13 +3889,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3873,13 +3903,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3887,13 +3917,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D221" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3901,13 +3931,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D222" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3915,13 +3945,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
       </c>
       <c r="D223" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3929,13 +3959,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>828</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3943,13 +3973,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>1097</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3957,13 +3987,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D226" t="n">
-        <v>45</v>
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3971,13 +4001,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3985,13 +4015,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3999,10 +4029,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D229" t="n">
         <v>2</v>
@@ -4013,13 +4043,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4027,13 +4057,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4041,13 +4071,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4055,13 +4085,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
       </c>
       <c r="D233" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4069,13 +4099,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C234" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4083,13 +4113,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4097,13 +4127,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C236" t="s">
         <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4111,10 +4141,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -4125,13 +4155,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4139,13 +4169,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
         <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4153,13 +4183,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D240" t="n">
-        <v>178</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4167,13 +4197,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
       </c>
       <c r="D241" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4181,13 +4211,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4195,13 +4225,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4209,13 +4239,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4223,13 +4253,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4237,13 +4267,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C246" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4251,13 +4281,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4265,13 +4295,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D248" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4279,13 +4309,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4293,13 +4323,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4307,13 +4337,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D251" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4321,13 +4351,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4335,13 +4365,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C253" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4349,13 +4379,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>7</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4363,13 +4393,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C255" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>33</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4377,13 +4407,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4391,13 +4421,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C257" t="s">
         <v>4</v>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4405,13 +4435,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D258" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4419,13 +4449,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D259" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4433,13 +4463,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4447,13 +4477,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C261" t="s">
         <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4461,13 +4491,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C262" t="s">
         <v>4</v>
       </c>
       <c r="D262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4475,13 +4505,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4489,13 +4519,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C264" t="s">
         <v>4</v>
       </c>
       <c r="D264" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4503,13 +4533,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D265" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4517,13 +4547,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4531,13 +4561,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4545,13 +4575,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D268" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4559,13 +4589,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D269" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4573,13 +4603,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4587,13 +4617,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4601,13 +4631,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C272" t="s">
         <v>4</v>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4615,13 +4645,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4629,13 +4659,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D274" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4643,13 +4673,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4657,13 +4687,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4671,13 +4701,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C277" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D277" t="n">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4685,13 +4715,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4699,13 +4729,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4713,7 +4743,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -4727,13 +4757,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4741,13 +4771,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D282" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4755,13 +4785,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4769,13 +4799,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D284" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4783,13 +4813,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C285" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>593</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4797,13 +4827,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D286" t="n">
-        <v>157</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4811,13 +4841,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C287" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4825,13 +4855,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C288" t="s">
         <v>4</v>
       </c>
       <c r="D288" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4839,13 +4869,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D289" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4853,13 +4883,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4867,13 +4897,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C291" t="s">
         <v>4</v>
       </c>
       <c r="D291" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4881,10 +4911,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D292" t="n">
         <v>2</v>
@@ -4895,10 +4925,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -4909,13 +4939,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D294" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4923,13 +4953,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
+        <v>109</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="n">
         <v>16</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>107</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4937,13 +4967,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4951,13 +4981,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4965,13 +4995,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C298" t="s">
         <v>4</v>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4979,13 +5009,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C299" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4993,13 +5023,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5007,13 +5037,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5021,13 +5051,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D302" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5035,13 +5065,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D303" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5049,13 +5079,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5063,13 +5093,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C305" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5077,13 +5107,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5091,13 +5121,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C307" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5105,13 +5135,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5119,13 +5149,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C309" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5133,13 +5163,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5147,13 +5177,363 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>128</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>95</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>150</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>151</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>88</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>125</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>152</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>140</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>112</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>51</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>114</v>
+      </c>
+      <c r="C325" t="s">
+        <v>20</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>94</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>100</v>
+      </c>
+      <c r="C327" t="s">
+        <v>20</v>
+      </c>
+      <c r="D327" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>103</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>98</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>146</v>
+      </c>
+      <c r="C331" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>153</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>84</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>126</v>
+      </c>
+      <c r="C334" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>66</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>154</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
